--- a/02_MasterWifoMannheim/99_Backup/Course38.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course38.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD3D0DB4B639A2011594ED0366BF3FCA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4148A5CB-4BC1-4EA0-8652-903AB1B4CE68}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05905DB9B3611594B48304E1BFD5D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D177A8C-6070-4D55-B7A8-30B22443284D}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>CS 717</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Duration of assessment</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
@@ -112,7 +109,7 @@
     <t>Offering</t>
   </si>
   <si>
-    <t>HWS</t>
+    <t>FWS</t>
   </si>
   <si>
     <t>Lecturer</t>
@@ -145,7 +142,7 @@
     <t>3rd Semester</t>
   </si>
   <si>
-    <t>CS 646 Higher Level Computer Vision, CS 647 Image Processing</t>
+    <t>CS 646 Higher Level Computer Vision, CS 647 Image Processing, SQ 500 Scientific Research</t>
   </si>
 </sst>
 </file>
@@ -578,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,69 +635,66 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
         <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
         <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
